--- a/OZONE/polar_c_alphafind_cg.xlsx
+++ b/OZONE/polar_c_alphafind_cg.xlsx
@@ -647,48 +647,48 @@
         <v>1.3797</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1989060989697307</v>
+        <v>-0.1989060989697312</v>
       </c>
       <c r="G2" t="n">
-        <v>4.208860640916748</v>
+        <v>4.208860640916743</v>
       </c>
       <c r="H2" t="n">
         <v>1.55854277807526</v>
       </c>
       <c r="I2" t="n">
-        <v>90.25187079924173</v>
+        <v>90.25187079924162</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8072236238626271</v>
+        <v>0.8072236238626284</v>
       </c>
       <c r="K2" t="n">
-        <v>2.387423592153937e-12</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="L2" t="n">
-        <v>28.59222403964331</v>
+        <v>28.59222403964337</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.7082983920376464, 0, -0.05212431096338251]</t>
+          <t>[0.7082983920376481, 0, -0.052124310963382575]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[0.06646338424953499, 0, -0.004891099778350773]</t>
+          <t>[0.06646338424953475, 0, -0.00489109977835075]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>[28.58938642628071, 0, 0.402814227594853]</t>
+          <t>[28.589386426280768, 0, 0.4028142275948544]</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[15.03216705675847, 0, 0.21179785644083493]</t>
+          <t>[15.03216705675847, 0, 0.21179785644083526]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>714.416999218349</v>
+        <v>714.4169992183504</v>
       </c>
       <c r="R2" t="n">
         <v>187.8623760680416</v>
@@ -697,79 +697,79 @@
         <v>14</v>
       </c>
       <c r="T2" t="n">
-        <v>1500.112619137866</v>
+        <v>1500.112619137868</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[1.83812431e+01 5.05984143e-14 1.50000000e+03]</t>
+          <t>[ 1.83812431e+01 -6.29968300e-13  1.50000000e+03]</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>(np.float64(-18.38124306654813), np.float64(5.059841434729151e-14), np.float64(-1499.9999999999984))</t>
+          <t>(np.float64(-18.38124306654824), np.float64(-6.299682997479294e-13), np.float64(-1500.0000000000005))</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>(np.float64(-39.51178477235064), np.float64(5.059841434729151e-14), np.float64(-1499.5921742129658))</t>
+          <t>(np.float64(-39.51178477235081), np.float64(-6.299682997479294e-13), np.float64(-1499.5921742129678))</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>[-9.51461132e-14 -1.06532061e+03 -1.93178806e-14]</t>
+          <t>[ 6.36490860e-13 -1.06532061e+03 -2.88824520e-13]</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>(np.float64(9.514611321037592e-14), np.float64(-1065.3206094421412), np.float64(1.9317880628477724e-14))</t>
+          <t>(np.float64(-6.364908600176022e-13), np.float64(-1065.3206094421441), np.float64(2.8882451985623447e-13))</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>(np.float64(9.540882552234822e-14), np.float64(-1065.3206094421412), np.float64(1.7975521785581037e-14))</t>
+          <t>(np.float64(-6.323586616729724e-13), np.float64(-1065.3206094421441), np.float64(2.977628942015753e-13))</t>
         </is>
       </c>
       <c r="AA2" t="n">
-        <v>1499.592174212966</v>
+        <v>1499.592174212968</v>
       </c>
       <c r="AB2" t="n">
-        <v>39.51178477235064</v>
+        <v>39.51178477235081</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.059841434729151e-14</v>
+        <v>-6.299682997479294e-13</v>
       </c>
       <c r="AD2" t="n">
-        <v>9.514611321037592e-14</v>
+        <v>-6.364908600176022e-13</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1065.320609442141</v>
+        <v>-1065.320609442144</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.931788062847772e-14</v>
+        <v>2.888245198562345e-13</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.4678880645362759</v>
+        <v>0.4678880645362765</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.01232808014166362</v>
+        <v>0.01232808014166367</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.578722172912368e-17</v>
+        <v>-1.965565395424685e-16</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.785178401933337e-18</v>
+        <v>-1.194215610068123e-17</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.1882204714311576</v>
+        <v>-0.1882204714311581</v>
       </c>
       <c r="AL2" t="n">
-        <v>3.624516241965001e-19</v>
+        <v>5.419068392799969e-18</v>
       </c>
       <c r="AM2" t="n">
-        <v>37.95303560324977</v>
+        <v>37.95303560324965</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.016084264779375</v>
+        <v>5.016084264779372</v>
       </c>
     </row>
     <row r="3">
@@ -789,48 +789,48 @@
         <v>1.3797</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1896449495794464</v>
+        <v>-0.1896449495794474</v>
       </c>
       <c r="G3" t="n">
-        <v>3.517932727244641</v>
+        <v>3.517932727244638</v>
       </c>
       <c r="H3" t="n">
         <v>1.562119930831016</v>
       </c>
       <c r="I3" t="n">
-        <v>75.39512562201941</v>
+        <v>75.39512562201935</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7859965811719746</v>
+        <v>0.7859965811719768</v>
       </c>
       <c r="K3" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="L3" t="n">
-        <v>31.81200303160779</v>
+        <v>31.81200303160785</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[0.7005900950306444, 0, -0.043070024644796104]</t>
+          <t>[0.7005900950306444, 0, -0.043070024644796076]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[0.06657060551902123, 0, -0.004092546612720568]</t>
+          <t>[0.06657060551902136, 0, -0.004092546612720573]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[31.809009731523776, 0, 0.4363906310278372]</t>
+          <t>[31.809009731523833, 0, 0.4363906310278392]</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[17.25640311624275, 0, 0.23674212774077355]</t>
+          <t>[17.25640311624275, 0, 0.23674212774077422]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>794.9084279044406</v>
+        <v>794.908427904442</v>
       </c>
       <c r="R3" t="n">
         <v>215.6622940542995</v>
@@ -839,76 +839,76 @@
         <v>15</v>
       </c>
       <c r="T3" t="n">
-        <v>1500.056461656204</v>
+        <v>1500.056461656201</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[1.30149205e+01 3.99860700e-13 1.50000000e+03]</t>
+          <t>[1.30149205e+01 6.58958998e-13 1.50000000e+03]</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>(np.float64(-13.014920534534921), np.float64(3.9986070010655794e-13), np.float64(-1500.000000000003))</t>
+          <t>(np.float64(-13.014920534534792), np.float64(6.589589984784539e-13), np.float64(-1500.0))</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>(np.float64(-33.59039289094965), np.float64(3.9986070010655794e-13), np.float64(-1499.680323823034))</t>
+          <t>(np.float64(-33.59039289094954), np.float64(6.589589984784539e-13), np.float64(-1499.6803238230311))</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>[ 1.66877623e-12 -1.05286912e+03  4.05231404e-14]</t>
+          <t>[ 2.49333887e-12 -1.05286912e+03  2.63816746e-13]</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>(np.float64(-1.6687762283140728e-12), np.float64(-1052.869124642466), np.float64(-4.0523140398818214e-14))</t>
+          <t>(np.float64(-2.4933388687031766e-12), np.float64(-1052.8691246424637), np.float64(-2.638167462265528e-13))</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>(np.float64(-1.6691750957092772e-12), np.float64(-1052.869124642466), np.float64(-1.7627392258906723e-14))</t>
+          <t>(np.float64(-2.496723246757252e-12), np.float64(-1052.8691246424637), np.float64(-2.295888039028208e-13))</t>
         </is>
       </c>
       <c r="AA3" t="n">
-        <v>1499.680323823034</v>
+        <v>1499.680323823031</v>
       </c>
       <c r="AB3" t="n">
-        <v>33.59039289094965</v>
+        <v>33.59039289094954</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.998607001065579e-13</v>
+        <v>6.589589984784539e-13</v>
       </c>
       <c r="AD3" t="n">
-        <v>-1.668776228314073e-12</v>
+        <v>-2.493338868703177e-12</v>
       </c>
       <c r="AE3" t="n">
-        <v>-1052.869124642466</v>
+        <v>-1052.869124642464</v>
       </c>
       <c r="AF3" t="n">
-        <v>-4.052314039881821e-14</v>
+        <v>-2.638167462265528e-13</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.4076064504462792</v>
+        <v>0.4076064504462784</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.009129719579485239</v>
+        <v>0.009129719579485208</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.086803621107127e-16</v>
+        <v>1.791021286954836e-16</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-2.727484115469548e-17</v>
+        <v>-4.075167205456397e-17</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.1620445657928295</v>
+        <v>-0.1620445657928292</v>
       </c>
       <c r="AL3" t="n">
-        <v>-6.623190088127105e-19</v>
+        <v>-4.311878204633432e-18</v>
       </c>
       <c r="AM3" t="n">
-        <v>44.64610844808239</v>
+        <v>44.64610844808246</v>
       </c>
       <c r="AN3" t="n">
         <v>4.303929308416615</v>
@@ -931,48 +931,48 @@
         <v>1.3797</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1909970824950629</v>
+        <v>-0.1909970824950261</v>
       </c>
       <c r="G4" t="n">
-        <v>2.946489287743214</v>
+        <v>2.946489287743263</v>
       </c>
       <c r="H4" t="n">
-        <v>1.565399667157824</v>
+        <v>1.565399667157822</v>
       </c>
       <c r="I4" t="n">
-        <v>63.12442881137093</v>
+        <v>63.12442881137199</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7890957343094057</v>
+        <v>0.7890957343093216</v>
       </c>
       <c r="K4" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>1.15164766611997e-10</v>
       </c>
       <c r="L4" t="n">
-        <v>35.21645237762005</v>
+        <v>35.21645237761999</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0.6939620474115041, 0, -0.03571914372115192]</t>
+          <t>[0.6939620474115085, 0, -0.035719143721152743]</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[0.06810784147814551, 0, -0.0035056006122662527]</t>
+          <t>[0.06810784147814511, 0, -0.0035056006122662913]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>[35.213112559087484, 0, 0.4849968723776362]</t>
+          <t>[35.21311255908742, 0, 0.4849968723775836]</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[19.63393739152041, 0, 0.27042194044525797]</t>
+          <t>[19.63393739152041, 0, 0.27042194044522916]</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>879.9952182456307</v>
+        <v>879.9952182456291</v>
       </c>
       <c r="R4" t="n">
         <v>245.3751172256683</v>
@@ -985,75 +985,75 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[8.09506804e+00 6.35977382e-13 1.50000000e+03]</t>
+          <t>[ 8.09506804e+00 -1.71085368e-13  1.50000000e+03]</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>(np.float64(-8.095068042507112), np.float64(6.359773818687131e-13), np.float64(-1499.999999999998))</t>
+          <t>(np.float64(-8.09506804250981), np.float64(-1.7108536809473662e-13), np.float64(-1499.999999999998))</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>(np.float64(-28.75212528119952), np.float64(6.359773818687131e-13), np.float64(-1499.7462603448696))</t>
+          <t>(np.float64(-28.75212528120001), np.float64(-1.7108536809473662e-13), np.float64(-1499.7462603448696))</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>[-2.19779750e-12 -1.04232104e+03 -3.38784556e-13]</t>
+          <t>[ 9.97091298e-13 -1.04232104e+03 -3.80445675e-13]</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>(np.float64(2.19779749954796e-12), np.float64(-1042.3210427072902), np.float64(3.387845559643665e-13))</t>
+          <t>(np.float64(-9.97091298415853e-13), np.float64(-1042.321042707297), np.float64(3.804456749634255e-13))</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>(np.float64(2.2022547686547284e-12), np.float64(-1042.3210427072902), np.float64(3.0848461601309483e-13))</t>
+          <t>(np.float64(-9.917572839487024e-13), np.float64(-1042.321042707297), np.float64(3.94141419682937e-13))</t>
         </is>
       </c>
       <c r="AA4" t="n">
         <v>1499.74626034487</v>
       </c>
       <c r="AB4" t="n">
-        <v>28.75212528119952</v>
+        <v>28.75212528120001</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.359773818687131e-13</v>
+        <v>-1.710853680947366e-13</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.19779749954796e-12</v>
+        <v>-9.970912984158531e-13</v>
       </c>
       <c r="AE4" t="n">
-        <v>-1042.32104270729</v>
+        <v>-1042.321042707297</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.387845559643665e-13</v>
+        <v>3.804456749634255e-13</v>
       </c>
       <c r="AG4" t="n">
         <v>0.3582636079394747</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.006868388614485777</v>
+        <v>0.006868388614485892</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.519240670377083e-16</v>
+        <v>-4.086935427675535e-17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3.157143725548687e-17</v>
+        <v>-1.432325106039238e-17</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.1409951388519388</v>
+        <v>-0.1409951388519397</v>
       </c>
       <c r="AL4" t="n">
-        <v>4.866651888518802e-18</v>
+        <v>5.465115306892283e-18</v>
       </c>
       <c r="AM4" t="n">
-        <v>52.16123141079681</v>
+        <v>52.16123141079593</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.73558502205262</v>
+        <v>3.735585022052585</v>
       </c>
     </row>
     <row r="5">
@@ -1073,48 +1073,48 @@
         <v>1.3797</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.200977294323963</v>
+        <v>-0.2009772943239635</v>
       </c>
       <c r="G5" t="n">
-        <v>2.46439258787756</v>
+        <v>2.464392587877553</v>
       </c>
       <c r="H5" t="n">
         <v>1.568461029240809</v>
       </c>
       <c r="I5" t="n">
-        <v>52.78218148936349</v>
+        <v>52.78218148936334</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8119709278751478</v>
+        <v>0.8119709278751488</v>
       </c>
       <c r="K5" t="n">
-        <v>1.888338374556042e-10</v>
+        <v>1.926991899381392e-10</v>
       </c>
       <c r="L5" t="n">
-        <v>38.79185151031777</v>
+        <v>38.79185151031787</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0.6882197993748819, 0, -0.029619816010419384]</t>
+          <t>[0.688219799374881, 0, -0.029619816010419266]</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[0.07060452651562628, 0, -0.0030386993905074707]</t>
+          <t>[0.07060452651562721, 0, -0.0030386993905075024]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>[38.78795622799913, 0, 0.5497228877956927]</t>
+          <t>[38.78795622799923, 0, 0.5497228877956948]</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[22.164750984208567, 0, 0.31413026370067365]</t>
+          <t>[22.164750984208567, 0, 0.31413026370067404]</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>969.3343737388542</v>
+        <v>969.3343737388567</v>
       </c>
       <c r="R5" t="n">
         <v>276.9999998693609</v>
@@ -1123,79 +1123,79 @@
         <v>17</v>
       </c>
       <c r="T5" t="n">
-        <v>1500.004090220292</v>
+        <v>1500.004090220288</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[3.50295270e+00 2.46885845e-13 1.50000000e+03]</t>
+          <t>[3.5029527e+00 2.1034563e-13 1.5000000e+03]</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>(np.float64(-3.502952699051409), np.float64(2.468858451010192e-13), np.float64(-1499.999999999998))</t>
+          <t>(np.float64(-3.502952699051309), np.float64(2.1034562980304372e-13), np.float64(-1499.9999999999939))</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>(np.float64(-24.75923860962489), np.float64(2.468858451010192e-13), np.float64(-1499.7997368919216))</t>
+          <t>(np.float64(-24.75923860962476), np.float64(2.1034562980304372e-13), np.float64(-1499.7997368919175))</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>[-4.21540580e-12 -1.03328535e+03  5.90610894e-13]</t>
+          <t>[-1.46449519e-12 -1.03328535e+03  2.09651740e-13]</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>(np.float64(4.215405802199257e-12), np.float64(-1033.2853468148123), np.float64(-5.906108935249677e-13))</t>
+          <t>(np.float64(1.464495191783044e-12), np.float64(-1033.2853468148096), np.float64(-2.09651740412653e-13))</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>(np.float64(4.206612911209029e-12), np.float64(-1033.2853468148123), np.float64(-6.5028848983741e-13))</t>
+          <t>(np.float64(1.4613771404993833e-12), np.float64(-1033.2853468148096), np.float64(-2.3038418400479423e-13))</t>
         </is>
       </c>
       <c r="AA5" t="n">
-        <v>1499.799736891922</v>
+        <v>1499.799736891918</v>
       </c>
       <c r="AB5" t="n">
-        <v>24.75923860962489</v>
+        <v>24.75923860962476</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.468858451010192e-13</v>
+        <v>2.103456298030437e-13</v>
       </c>
       <c r="AD5" t="n">
-        <v>4.215405802199257e-12</v>
+        <v>1.464495191783044e-12</v>
       </c>
       <c r="AE5" t="n">
-        <v>-1033.285346814812</v>
+        <v>-1033.28534681481</v>
       </c>
       <c r="AF5" t="n">
-        <v>-5.906108935249677e-13</v>
+        <v>-2.09651740412653e-13</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.3173659305788701</v>
+        <v>0.3173659305788692</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.005239192012429414</v>
+        <v>0.005239192012429387</v>
       </c>
       <c r="AI5" t="n">
-        <v>5.224241213670916e-17</v>
+        <v>4.451030021113551e-17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5.363992842832827e-17</v>
+        <v>1.863531554420917e-17</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0.1238126523339915</v>
+        <v>-0.1238126523339911</v>
       </c>
       <c r="AL5" t="n">
-        <v>-7.515368043841009e-18</v>
+        <v>-2.667763171161852e-18</v>
       </c>
       <c r="AM5" t="n">
-        <v>60.57535777004429</v>
+        <v>60.57535777004443</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.276363515752708</v>
+        <v>3.276363515752702</v>
       </c>
     </row>
     <row r="6">
@@ -1215,48 +1215,48 @@
         <v>1.3797</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2183821518771461</v>
+        <v>-0.2183821518771462</v>
       </c>
       <c r="G6" t="n">
-        <v>2.050040871818754</v>
+        <v>2.050040871818755</v>
       </c>
       <c r="H6" t="n">
         <v>1.570219210690919</v>
       </c>
       <c r="I6" t="n">
-        <v>43.89928160998551</v>
+        <v>43.89928160998554</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8518641290159502</v>
+        <v>0.8518641290159507</v>
       </c>
       <c r="K6" t="n">
-        <v>8.640199666842818e-12</v>
+        <v>5.002220859751105e-12</v>
       </c>
       <c r="L6" t="n">
         <v>42.55773428397666</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[0.6831700402106445, 0, -0.02445423514572098]</t>
+          <t>[0.683170040210646, 0, -0.024454235145721048]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[0.07370810227209178, 0, -0.002638399167139734]</t>
+          <t>[0.07370810227209128, 0, -0.002638399167139718]</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>[42.553030624210486, 0, 0.6327180103073696]</t>
+          <t>[42.55303062421048, 0, 0.6327180103073698]</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[24.848812156697523, 0, 0.3694752349164541]</t>
+          <t>[24.848812156697523, 0, 0.3694752349164543]</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>1063.411104462821</v>
+        <v>1063.41110446282</v>
       </c>
       <c r="R6" t="n">
         <v>310.5354786200455</v>
@@ -1265,79 +1265,79 @@
         <v>18</v>
       </c>
       <c r="T6" t="n">
-        <v>1500.000249797282</v>
+        <v>1500.000249797284</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[-8.65674252e-01 -1.42427736e-13  1.50000000e+03]</t>
+          <t>[-8.65674252e-01  3.80390164e-14  1.50000000e+03]</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>(np.float64(0.8656742520745236), np.float64(-1.4242773627159977e-13), np.float64(-1499.9999999999989))</t>
+          <t>(np.float64(0.8656742520744805), np.float64(3.8039016381219426e-14), np.float64(-1500.000000000001))</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>(np.float64(-21.435350538513084), np.float64(-1.4242773627159977e-13), np.float64(-1499.8470839186234))</t>
+          <t>(np.float64(-21.43535053851317), np.float64(3.8039016381219426e-14), np.float64(-1499.8470839186255))</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>[-1.32360789e-12 -1.02541136e+03 -8.32250935e-14]</t>
+          <t>[-3.64708264e-13 -1.02541136e+03  1.05263021e-13]</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>(np.float64(1.3236078899581116e-12), np.float64(-1025.4113590556947), np.float64(8.32250934834633e-14))</t>
+          <t>(np.float64(3.647082635893639e-13), np.float64(-1025.4113590556979), np.float64(-1.0526302052227265e-13))</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>(np.float64(1.3246989305212317e-12), np.float64(-1025.4113590556947), np.float64(6.35374379448871e-14))</t>
+          <t>(np.float64(3.6310297905908865e-13), np.float64(-1025.4113590556979), np.float64(-1.106736084993003e-13))</t>
         </is>
       </c>
       <c r="AA6" t="n">
-        <v>1499.847083918623</v>
+        <v>1499.847083918625</v>
       </c>
       <c r="AB6" t="n">
-        <v>21.43535053851308</v>
+        <v>21.43535053851317</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1.424277362715998e-13</v>
+        <v>3.803901638121943e-14</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.323607889958112e-12</v>
+        <v>3.647082635893639e-13</v>
       </c>
       <c r="AE6" t="n">
-        <v>-1025.411359055695</v>
+        <v>-1025.411359055698</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.32250934834633e-14</v>
+        <v>-1.052630205222727e-13</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.2830915104857731</v>
+        <v>0.2830915104857735</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.004045856292153139</v>
+        <v>0.004045856292153155</v>
       </c>
       <c r="AI6" t="n">
-        <v>-2.688279587199847e-17</v>
+        <v>7.1797470023529e-18</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.502314920674493e-17</v>
+        <v>4.139493805079439e-18</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0.1095962547508515</v>
+        <v>-0.1095962547508518</v>
       </c>
       <c r="AL6" t="n">
-        <v>9.44617364880571e-19</v>
+        <v>-1.19475116101703e-18</v>
       </c>
       <c r="AM6" t="n">
-        <v>69.97072808414468</v>
+        <v>69.9707280841445</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.901905000834704</v>
+        <v>2.901905000834706</v>
       </c>
     </row>
   </sheetData>

--- a/OZONE/polar_c_alphafind_cg.xlsx
+++ b/OZONE/polar_c_alphafind_cg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN6"/>
+  <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,574 +772,6 @@
         <v>5.016084264779372</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1533</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.3797</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.1896449495794474</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3.517932727244638</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.562119930831016</v>
-      </c>
-      <c r="I3" t="n">
-        <v>75.39512562201935</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7859965811719768</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-1.13686837721616e-12</v>
-      </c>
-      <c r="L3" t="n">
-        <v>31.81200303160785</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[0.7005900950306444, 0, -0.043070024644796076]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[0.06657060551902136, 0, -0.004092546612720573]</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[31.809009731523833, 0, 0.4363906310278392]</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>[17.25640311624275, 0, 0.23674212774077422]</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>794.908427904442</v>
-      </c>
-      <c r="R3" t="n">
-        <v>215.6622940542995</v>
-      </c>
-      <c r="S3" t="n">
-        <v>15</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1500.056461656201</v>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>[1.30149205e+01 6.58958998e-13 1.50000000e+03]</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>(np.float64(-13.014920534534792), np.float64(6.589589984784539e-13), np.float64(-1500.0))</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>(np.float64(-33.59039289094954), np.float64(6.589589984784539e-13), np.float64(-1499.6803238230311))</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>[ 2.49333887e-12 -1.05286912e+03  2.63816746e-13]</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>(np.float64(-2.4933388687031766e-12), np.float64(-1052.8691246424637), np.float64(-2.638167462265528e-13))</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>(np.float64(-2.496723246757252e-12), np.float64(-1052.8691246424637), np.float64(-2.295888039028208e-13))</t>
-        </is>
-      </c>
-      <c r="AA3" t="n">
-        <v>1499.680323823031</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>33.59039289094954</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>6.589589984784539e-13</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>-2.493338868703177e-12</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>-1052.869124642464</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>-2.638167462265528e-13</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.4076064504462784</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.009129719579485208</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1.791021286954836e-16</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>-4.075167205456397e-17</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>-0.1620445657928292</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>-4.311878204633432e-18</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>44.64610844808246</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.303929308416615</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1533</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.3797</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.1909970824950261</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.946489287743263</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.565399667157822</v>
-      </c>
-      <c r="I4" t="n">
-        <v>63.12442881137199</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.7890957343093216</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.15164766611997e-10</v>
-      </c>
-      <c r="L4" t="n">
-        <v>35.21645237761999</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>[0.6939620474115085, 0, -0.035719143721152743]</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>[0.06810784147814511, 0, -0.0035056006122662913]</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>[35.21311255908742, 0, 0.4849968723775836]</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>[19.63393739152041, 0, 0.27042194044522916]</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
-        <v>879.9952182456291</v>
-      </c>
-      <c r="R4" t="n">
-        <v>245.3751172256683</v>
-      </c>
-      <c r="S4" t="n">
-        <v>16</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1500.021843216493</v>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>[ 8.09506804e+00 -1.71085368e-13  1.50000000e+03]</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>(np.float64(-8.09506804250981), np.float64(-1.7108536809473662e-13), np.float64(-1499.999999999998))</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>(np.float64(-28.75212528120001), np.float64(-1.7108536809473662e-13), np.float64(-1499.7462603448696))</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>[ 9.97091298e-13 -1.04232104e+03 -3.80445675e-13]</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>(np.float64(-9.97091298415853e-13), np.float64(-1042.321042707297), np.float64(3.804456749634255e-13))</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>(np.float64(-9.917572839487024e-13), np.float64(-1042.321042707297), np.float64(3.94141419682937e-13))</t>
-        </is>
-      </c>
-      <c r="AA4" t="n">
-        <v>1499.74626034487</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>28.75212528120001</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>-1.710853680947366e-13</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>-9.970912984158531e-13</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>-1042.321042707297</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>3.804456749634255e-13</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.3582636079394747</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.006868388614485892</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>-4.086935427675535e-17</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>-1.432325106039238e-17</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>-0.1409951388519397</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>5.465115306892283e-18</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>52.16123141079593</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.735585022052585</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1533</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.3797</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.2009772943239635</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.464392587877553</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.568461029240809</v>
-      </c>
-      <c r="I5" t="n">
-        <v>52.78218148936334</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.8119709278751488</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.926991899381392e-10</v>
-      </c>
-      <c r="L5" t="n">
-        <v>38.79185151031787</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>[0.688219799374881, 0, -0.029619816010419266]</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>[0.07060452651562721, 0, -0.0030386993905075024]</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>[38.78795622799923, 0, 0.5497228877956948]</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>[22.164750984208567, 0, 0.31413026370067404]</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
-        <v>969.3343737388567</v>
-      </c>
-      <c r="R5" t="n">
-        <v>276.9999998693609</v>
-      </c>
-      <c r="S5" t="n">
-        <v>17</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1500.004090220288</v>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>[3.5029527e+00 2.1034563e-13 1.5000000e+03]</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>(np.float64(-3.502952699051309), np.float64(2.1034562980304372e-13), np.float64(-1499.9999999999939))</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>(np.float64(-24.75923860962476), np.float64(2.1034562980304372e-13), np.float64(-1499.7997368919175))</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>[-1.46449519e-12 -1.03328535e+03  2.09651740e-13]</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>(np.float64(1.464495191783044e-12), np.float64(-1033.2853468148096), np.float64(-2.09651740412653e-13))</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>(np.float64(1.4613771404993833e-12), np.float64(-1033.2853468148096), np.float64(-2.3038418400479423e-13))</t>
-        </is>
-      </c>
-      <c r="AA5" t="n">
-        <v>1499.799736891918</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>24.75923860962476</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>2.103456298030437e-13</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>1.464495191783044e-12</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>-1033.28534681481</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>-2.09651740412653e-13</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.3173659305788692</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0.005239192012429387</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>4.451030021113551e-17</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1.863531554420917e-17</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>-0.1238126523339911</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>-2.667763171161852e-18</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>60.57535777004443</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.276363515752702</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1533</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.3797</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.2183821518771462</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.050040871818755</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.570219210690919</v>
-      </c>
-      <c r="I6" t="n">
-        <v>43.89928160998554</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8518641290159507</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.002220859751105e-12</v>
-      </c>
-      <c r="L6" t="n">
-        <v>42.55773428397666</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>[0.683170040210646, 0, -0.024454235145721048]</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>[0.07370810227209128, 0, -0.002638399167139718]</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>[42.55303062421048, 0, 0.6327180103073698]</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>[24.848812156697523, 0, 0.3694752349164543]</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>1063.41110446282</v>
-      </c>
-      <c r="R6" t="n">
-        <v>310.5354786200455</v>
-      </c>
-      <c r="S6" t="n">
-        <v>18</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1500.000249797284</v>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>[-8.65674252e-01  3.80390164e-14  1.50000000e+03]</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>(np.float64(0.8656742520744805), np.float64(3.8039016381219426e-14), np.float64(-1500.000000000001))</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>(np.float64(-21.43535053851317), np.float64(3.8039016381219426e-14), np.float64(-1499.8470839186255))</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>[-3.64708264e-13 -1.02541136e+03  1.05263021e-13]</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>(np.float64(3.647082635893639e-13), np.float64(-1025.4113590556979), np.float64(-1.0526302052227265e-13))</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>(np.float64(3.6310297905908865e-13), np.float64(-1025.4113590556979), np.float64(-1.106736084993003e-13))</t>
-        </is>
-      </c>
-      <c r="AA6" t="n">
-        <v>1499.847083918625</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>21.43535053851317</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>3.803901638121943e-14</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>3.647082635893639e-13</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>-1025.411359055698</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>-1.052630205222727e-13</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.2830915104857735</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0.004045856292153155</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>7.1797470023529e-18</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>4.139493805079439e-18</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>-0.1095962547508518</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>-1.19475116101703e-18</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>69.9707280841445</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>2.901905000834706</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
